--- a/data/scenario_and_base_data/_EXCELFILES/population_regions.xlsx
+++ b/data/scenario_and_base_data/_EXCELFILES/population_regions.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3000000</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>5300000</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>53000000</v>
